--- a/PRONACES/assets/docs/3/3_2/3_2_6/libros.xlsx
+++ b/PRONACES/assets/docs/3/3_2/3_2_6/libros.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
   <si>
     <t>Id</t>
   </si>
@@ -27,22 +27,19 @@
     <t>tema</t>
   </si>
   <si>
-    <t>anio</t>
-  </si>
-  <si>
     <t>archivo</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">Magister Marta A. Acosta C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mujer Indígena y Cuidados Durante el Embarazo y Puerperio</t>
-  </si>
-  <si>
-    <t>Embarazo</t>
+    <t xml:space="preserve">Karla Angélica Benítez Escobar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pariendo comunidad: reflexiones en torno a la partería tradicional indígena. Construyendo interculturalidad des-colonizada</t>
+  </si>
+  <si>
+    <t>Partería</t>
   </si>
   <si>
     <t xml:space="preserve">Acosta C., M. y D. Cleghorn. Mujer indígena y cuidados durante el embarazo y puerperio.</t>
@@ -54,16 +51,10 @@
     <t>2</t>
   </si>
   <si>
-    <t xml:space="preserve">Jair Hernando Álvarez Torre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTRAS PRÁCTICAS DE CRIANZA EN ALGUNAS CULTURAS ÉTNICAS DE COLOMBIA: 1 UN DIÁLOGO INTERCULTURAL</t>
-  </si>
-  <si>
-    <t>CRIANZA</t>
-  </si>
-  <si>
-    <t>2012</t>
+    <t xml:space="preserve">Raquel Paiva Dias-Scopel y Daniel Scopel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Quiénes son las parteras munduruku? Pluralismo médico y autoatención en el parto domiciliario entre indígenas en Amazonas, Brasil</t>
   </si>
   <si>
     <t xml:space="preserve">Álvarez Torres, Jair Hernando, et al. Otras prácticas de crianza en algunas culturas étnicas de Colombia...</t>
@@ -72,16 +63,10 @@
     <t>3</t>
   </si>
   <si>
-    <t xml:space="preserve">Revista Aletheia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crianza-regulación, crianza-emancipación: estado de la cuestión de estudios sobre crianza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crianza, teoría crítica posmoderna, regulación, emancipación.</t>
-  </si>
-  <si>
-    <t>2016</t>
+    <t xml:space="preserve">Yasnury Vanegas Moreno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Partería para el cuidado de la vida”. Prácticas, creencias y saberes ancestrales de parteras afronuquiseñas en el cuidado del embarazo, la atención del parto y el puerperio como posible aporte al nuevo modelo integral en salud con enfoque diferencial étnico.</t>
   </si>
   <si>
     <t xml:space="preserve">Álvarez Vargas, Cristina. Crianza-regulación, crianza-emancipación,estado de la cuestión de estudios sobre crianza</t>
@@ -90,16 +75,10 @@
     <t>4</t>
   </si>
   <si>
-    <t xml:space="preserve">Emanuele Amodio, Gilberto Pérez y Claudia Poblete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Las pautas de crianza del pueblo piaroa de Venezuela</t>
-  </si>
-  <si>
-    <t>crianza</t>
-  </si>
-  <si>
-    <t>2006</t>
+    <t xml:space="preserve">Diana Álvarez Romo y Gilberto Hernández Zinzún</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tensiones y resistencias: la partería comunitaria tseltal y el sistema de salud mexicano</t>
   </si>
   <si>
     <t xml:space="preserve">Amodio, Perez, Poblete...Las pautas de crianzapueblo piaroa en venezuela</t>
@@ -108,26 +87,799 @@
     <t>5</t>
   </si>
   <si>
-    <t xml:space="preserve">Jeanine Anderson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los estudios de género y sus alcances</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GENERO, MUJERES</t>
-  </si>
-  <si>
-    <t>2007</t>
+    <t xml:space="preserve">Chavarría, Miguel y Fernando García</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otra globalización es posible. Diálogo con Boaventura de Sousa Santos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boaventura de Sousa Santos</t>
   </si>
   <si>
     <t xml:space="preserve">Andersos Jeanine. Los estudios de género y sus alcances.</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Justicia entre saberes. Epistemologías del Sur contra el epistemicidio</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descolonizar el saber, reinventar el poder.</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Una concepción multicultural de los derechos humanos</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meneses M. P. y Bidaseca Karina. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epistemologias del Sur</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> De las dualidades a las ecologías.</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">́Alvarez Torres, Jair Hernando, et al. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otras prácticas de crianza en algunas culturas étnicas de Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saberes sobre la crianza</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">́Álvarez Vargas, Cristina.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crianza-regulación, crianza-emancipación,estado de la cuestión de estudios sobre crianza</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amodio, Perez, Poblete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las Pautas de crianzapueblo Piaroa en Venezuela</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betancourt Enríquez y Bonilla Pineda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posibles rupturas y continuidades en las prácticas de crianza de una familia indígena Nasa que ha migrado a la comuna 18, en la ciudad de Cali</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantor Acosta, Carvajal Herández, Reyes Reyes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Una aproximación desde el relato mítico y el rito a las prácticas de crianza en familias indígenas Ticuna Comunidad Doce de Octubre, Amazonas Colombia</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardona Alarcón, Ramírez Cabanzo, Vergara Arboleda, Gutiérrez Pérez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geografías del cuidado y la crianza desde la experiencia educativa en comunidades originarias de América Latina</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colangelo Maria adelaida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.La crianza como proceso sociocultural. Posibles aportes de la antropología al abordaje médico de la niñez</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crianza infantil y diversidad cultural, aportes de la antropología a la práctica pediátrica.</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diaz Barriga, Alejandro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las entidades anímicas y su relación con el desarrollo de la niñez nahua prehispánica</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">López EstradaL. E., y Álvarez TorresJ. H. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Territorio, Mujeres, Estesis, Crianza Y Extractivismo Cultural</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mora Quintero, K..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prácticas de crianza y proceso de aculturación del pueblo indígena Curripaco</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panchi Tascon, Alexandra María</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las prácticas de crianza durante el embarazo y el parto en las comunidades indígenas Chakiama y la zona de Dabeiba</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rivas Armas, D. C., y I. de L. Mercerón.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prácticas De Crianza, Legado Cultural Afrodescendiente. Narrativas De Mujeres Afrovenezolanas</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moctezuma Balderas A. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El trabajo de cuidados de la infancia nahua con discapacidad. El caso de las madres de la Huasteca potosina, México</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salas Achipiz, Yasmid.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practicas de Crianza Ancestral en familias Indígenas del pueblo Nasa en Bogota</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandoval, S. E.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recuperación De La Memoria históricahistórica: el caso de Qaralamaxat Qarma’ –Etaxat, su importancia en las prácticas de maternaje de las Madres Cuidadoras de la Cultura Qom de Pampa del Indio</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandoval, Sylvia Edith, et al. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las prácticas de maternaje de las madres cuidadoras de la cultura QOM. Contribuciones para la formación de grado en perspectiva de diálogo intercultural</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varela Londoño, Chinchilla Salcedo, Murad Gutiérrez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prácticas de crianza en niños y niñas menores de seis años en Colombia</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acosta C., M. y D. Cleghorn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mujer indígena y cuidados durante el embarazo y puerperio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saberes sobre el nacimiento y el embarazo</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arancibia Flores, Noelia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derecho al uso de la placenta como ritual cultura</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Araujo Salas, Brenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacer Matsigenka: prácticas tradicionales en torno al parto en la comunidad nativa de Camisea</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banda Pérez A. et. al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cuidados en el recién nacido de acuerdo a creencias y costumbres en diferentes culturas</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bedoya Quillupangui, A C. y D. L. Chicaiza Jami. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conocimientos actitudes y prácticas en el cuidado del embarazo parto y puerperio de las Mujeres Indígenas</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berrío Palomo L. R. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redes familiares y el lugar de los varones en el cuidado de la salud materna entre mujeres indígenas mexicanas</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borda Alvarez Maryi Mildred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prácticas de cuidado cultural en gestantes del sector rural del municipio de Combita Boyacá</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bula Romero J. A. y Keiner Galarza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortalidad materna en la gestante wayúu de Uribia, departamento de la Guajira, Colombia</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calderón Torres, Alfredo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percepción cultural del “embarazo y parto”, en las comunidades campesinas del distrito Ayaviri-Puno</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castillo-Santana, P. T., et al. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salud materna indígena en mujeres Nasa y Misak del Cauca, Colombia</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cepeda Vargas Angie Paola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. Entre chinchorros y camillas de parto. Relatos sobre el cuidado de la salud en el embarazo, parto y posparto de mujeres indígenas wayuu </t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chávez Alvarez, R. E., et al. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rescatando el autocuidado de la salud durante el embarazo, el parto y al recién nacido</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chávez Courtois et al. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actos cotidianos de resistencia en el embarazo para prevenir la morbimortalidad materna</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medina, Armando y Mayca, Julio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creencias y costumbres relacionadas con el embarazo, parto y puerperio en comunidades nativas Awajun y Wampis-</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morgante, María Gabriela y Remorini, Carolina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudio etnográfico de las relaciones intergeneracionales en el cuidado de la salud a escala doméstica durante las etapas pre y
+postnatal (Molinos, Salta, Argentina)</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flores Cisneros, Carmen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saber popular y prácticas de embarazo, parto y puerperio en Yahuío, Sierra Norte de Oaxaca</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">González Berenice,Lira; Álvarez Aguirre, Alicia y García Falconi Sulima del Carmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prácticas culturales del cuidado de las mujeres otomíes durante el embarazo</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolodin, Susan K. et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asuntos de familia Estudio cualitativo sobre-las-redes-sociales-durante-el-embarazo-y-parto-en-Mesoamérica-Chiapas-México-Guatemala-Panamá-Honduras-y-Nicaragua</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navarro, A., M. Angarita y M. P. Bejarano Beltrán. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creencias y prácticas de cuidado genérico en gestantes Wayúu colombianas</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oviedo C., M. O. et al. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comunidades Embera y Wounaan del departamento de Chocó prácticas de cuidado durante el proceso de gestación</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pelcastre B. et al. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embarazo, parto y puerperio. creencias y prácticas de parteras en San Luis Potosí</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pérez Banda, A, et al. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuidados culturales durante el puerperio mediato en las mujeres indígenas</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodríguez Venegas, V. y C. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duarte Hidalgo. Saberes ancestrales y prácticas tradicionales. Embarazo, parto y puerperio</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cruz de la Cruz, Catalina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sentidos y significados del embarazo en diversas generaciones de la cultura nahua.</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anderson Jeanine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Los estudios de género y sus alcances.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudios de género</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arango L. G. y Puyana Y. (comps).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Género, mujeres y saberes en América Latina.</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cumes, A. (2012).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mujeres indígenas, patriarcado y colonialismo. un desafía a la segregación comprensiva de las formas de dominio.</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gil Hernández F. y Pérez-Bustos T. (Comps).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Feminismo y Estudios de Género en Colombia</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puig Borràs-Montalvo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infecciones de transmisión sexual, VIH y Sida: una aproximación a conocimientos, actitudes y prácticas de poblaciones adultas y jóvenes indígenas en las tierras bajas de Bolivia*</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saavedra Hernandez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descolonizar el cuerpo de las mujeres: las violencias contra las mujeres tzeltales y “la sanación del corazón” como un acto
+político en contra del sistema colonial/patriarcal*</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viveros Vigoya, Mara y Carmen Gregorio Gil. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sexualidades e interseccionalidad en América Latina, el Caribe y su diáspora</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argueta Villamar, Arturo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El diálogo de saberes, una utopía realista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generación de Conocimiento</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arriba, Jesús Moreno. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diálogo de saberes y colaboración social intercultural. El ejemplo de la universidad veracruzana intercultural sede selvas</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cornejo I. y  Rufer M. (Eds.) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horizontalidad. Hacia una crítica de la metodología</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corona Berkin S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Producción horizontal del conocimiento</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katzer, Leticia y Manzaneli, Macarena (Eds)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etnografias colaborativas, comprometidas y contemporáneas</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herrera Mahecha,Dajhanna J.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los Podcasts como una posible forma de reivindicación de la participación de la mujer indígena</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Rodrigues Brandão, Benjamín Berlanga Gallardo, et.al (Coords)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigar desde el Sur Epistemologías, metodologías y cartografías emergentes</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Baenz, Mariano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metodologías audiovisuales participativas. Un desafío epistémico, ético y político</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mato, Daniel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Generación, circulación y apropiación de información y conocimientos para la construcción de sociedades equitativas</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xochitl Leyva, Jorge Alonso, R. Aída Hernández, Arturo Escobar, et.al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prácticas otras de conocimiento(s). Entre crisis, entre guerras.</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rappaport Joanne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Más allá de la observación participante: la etnografía colaborativa como innovación teórica</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yásnaya A. Gil, Darío Alemán. Et.al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descolonización -Revista de la universidad</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maruja Salas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los Sabores y las Voces de la Tierra. Visualizando la Soberanía Alimentaria en los Andes</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santisteban Kaia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Una revisión de las metodologías etnográficas colaborativas en la producción de conocimientos sobre memorias de la medicina mapuche.</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evelyn Dayana Cruz Suárez. Juan Felipe Bello Sánchez. Rusbling Yolima Zuleta Oviedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creencias y prácticas del cuidado en la población indígena de la comunidad Cumariana, resguardo Aiwakuna Tsepajibo del municipio de Cumaribo-Vichada.</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valladares Laura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La antropología comunitaria Una nueva relación de investigación en y con los pueblos indígenas.</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vega Cristina, Martínez-Buján R. Paredes M. (Eds.) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuidado, comunidad y común: extracciones, apropiaciones y sostenimiento de la vida</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viveros Vigoya, Mara. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La problemática de la representación social y su utilidad para los estudios de salud y enfermedad</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arango Melo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuerpos endurecidos y cuerpos protegidos. Prácticas y rituales en el orden corporal de los niños afrodescendientes del Pacífico colombiano</t>
+  </si>
+  <si>
+    <t>Rituales</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baez Cubero, Lourdes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El juego de las alternancias: la vida y la muerte. Rituales del ciclo de vida entre los nahuas de la Sierra de Puebla</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barabas, Alicaia M. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etnoterritorios y rituales terapéuticos en Oaxaca</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cervera Montejano, María Dolores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El hetsmek como expresión simbólica de la construcción de los niños mayas yucatecos como personas</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ritos de paso de la niñez nahua durante la veintena de Izcalli</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selva Sofia Chirif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El proceso procreativo y la concepción de la persona en el pueblo ticuna del Amazonas peruano</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oenning da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La educación de sí mismo y la producción del niño indígena en el noroeste amazónico de Brasil</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banda Pérez, Álvarez-Aguirre, et.al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rituales para cuidar al neonato según la cosmovisión de  comunidades Nahuas</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viveros Vigoya, Mara.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Los colores del antirracismo (en Améfrica Ladina)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desigualdades sociales</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viveros, Mara, y Franklin Gil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> De las desigualdades sociales a las diferencias culturales. Género,“raza” y etnicidad en la salud sexual y reproductiva en Colombia</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fierro Rivadeneira, P. y Zamora Chico. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La interculturalidad como práctica de revitalización…</t>
+  </si>
+  <si>
+    <t>Interculturalidad</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xochitl Leyva, Araceli Burguete y Shannon Speed (coordinadoras)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gobernar (en) la diversidad:  experiencias indígenas desde América Latina. Hacia la investigación de co-labor</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Del “diálogo de saberes” a la construcción de modalidades de “colaboración intercultural”: Aprendizajes y articulaciones más allá de la Academia</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maya Lorena Pérez Ruiz y Arturo Argueta Villamar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Saberes indigenas y dialogo intercultural</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -138,6 +890,18 @@
       <name val="Calibri"/>
       <color rgb="FF9C6500"/>
       <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <sz val="10.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <sz val="12.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -175,11 +939,23 @@
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="0" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="49" xfId="2" applyNumberFormat="1" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="3" fillId="3" borderId="0" numFmtId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,152 +1471,1678 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625"/>
-    <col customWidth="1" min="2" max="2" style="1" width="17.421875"/>
-    <col customWidth="1" min="3" max="3" style="1" width="15.140625"/>
-    <col bestFit="1" min="4" max="4" style="1" width="9.28125"/>
-    <col min="5" max="5" style="1" width="9.140625"/>
-    <col customWidth="1" min="6" max="6" style="1" width="15.140625"/>
+    <col min="1" max="1" style="2" width="9.140625"/>
+    <col customWidth="1" min="2" max="2" style="2" width="17.421875"/>
+    <col customWidth="1" min="3" max="3" style="2" width="15.140625"/>
+    <col bestFit="1" min="4" max="4" style="2" width="9.28125"/>
+    <col customWidth="1" min="5" max="5" style="2" width="15.140625"/>
+    <col min="6" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="16.5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" ht="121.5">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="14.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1">
-        <v>2017</v>
-      </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" ht="121.5">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" ht="14.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="243">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25">
-      <c r="A4" s="1" t="s">
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="81">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="54">
+      <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25">
-      <c r="A5" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="67.5">
+      <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="A6" s="1" t="s">
+      <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" ht="40.5">
+      <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" ht="54">
+      <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" ht="27">
+      <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" ht="54">
+      <c r="A12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" ht="81">
+      <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" ht="54">
+      <c r="A14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" ht="121.5">
+      <c r="A15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" ht="135">
+      <c r="A16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" ht="108">
+      <c r="A17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" ht="108">
+      <c r="A18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" ht="81">
+      <c r="A19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" ht="81">
+      <c r="A20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" ht="67.5">
+      <c r="A21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" ht="81">
+      <c r="A22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" ht="108">
+      <c r="A23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" ht="94.5">
+      <c r="A24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" ht="108">
+      <c r="A25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" ht="81">
+      <c r="A26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" ht="175.5">
+      <c r="A27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" ht="148.5">
+      <c r="A28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" ht="67.5">
+      <c r="A29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" ht="54">
+      <c r="A30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" ht="40.5">
+      <c r="A31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" ht="81">
+      <c r="A32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" ht="94.5">
+      <c r="A33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" ht="94.5">
+      <c r="A34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" ht="108">
+      <c r="A35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" ht="81">
+      <c r="A36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" ht="94.5">
+      <c r="A37" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" ht="108">
+      <c r="A38" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" ht="67.5">
+      <c r="A39" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" ht="135">
+      <c r="A40" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" ht="81">
+      <c r="A41" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" ht="81">
+      <c r="A42" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" ht="108">
+      <c r="A43" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" ht="162">
+      <c r="A44" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" ht="81">
+      <c r="A45" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" ht="81">
+      <c r="A46" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" ht="148.5">
+      <c r="A47" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" ht="81">
+      <c r="A48" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" ht="121.5">
+      <c r="A49" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" ht="81">
+      <c r="A50" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" ht="67.5">
+      <c r="A51" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" ht="94.5">
+      <c r="A52" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" ht="81">
+      <c r="A53" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" ht="40.5">
+      <c r="A54" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" ht="40.5">
+      <c r="A55" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" ht="121.5">
+      <c r="A56" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" ht="54">
+      <c r="A57" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" ht="162">
+      <c r="A58" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" ht="175.5">
+      <c r="A59" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" ht="67.5">
+      <c r="A60" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" ht="40.5">
+      <c r="A61" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" ht="135">
+      <c r="A62" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" ht="40.5">
+      <c r="A63" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" ht="40.5">
+      <c r="A64" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" ht="14.25">
+      <c r="A65" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" ht="14.25">
+      <c r="A66" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" ht="14.25">
+      <c r="A67" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" ht="14.25">
+      <c r="A68" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" ht="14.25">
+      <c r="A69" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" ht="14.25">
+      <c r="A70" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" ht="14.25">
+      <c r="A71" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" ht="14.25">
+      <c r="A72" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" ht="14.25">
+      <c r="A73" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" ht="14.25">
+      <c r="A74" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" ht="14.25">
+      <c r="A75" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" ht="14.25">
+      <c r="A76" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" ht="14.25">
+      <c r="A77" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" ht="14.25">
+      <c r="A78" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" ht="14.25">
+      <c r="A79" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" ht="14.25">
+      <c r="A80" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" ht="14.25">
+      <c r="A81" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" ht="14.25">
+      <c r="A82" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" ht="14.25">
+      <c r="A83" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" ht="14.25">
+      <c r="A84" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" ht="14.25">
+      <c r="A85" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" ht="14.25">
+      <c r="A86" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" ht="14.25">
+      <c r="A87" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" ht="14.25">
+      <c r="A88" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" ht="14.25">
+      <c r="A89" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" ht="14.25">
+      <c r="A90" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" ht="14.25">
+      <c r="A91" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" ht="14.25">
+      <c r="A92" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/PRONACES/assets/docs/3/3_2/3_2_6/libros.xlsx
+++ b/PRONACES/assets/docs/3/3_2/3_2_6/libros.xlsx
@@ -872,7 +872,7 @@
     <t xml:space="preserve">Maya Lorena Pérez Ruiz y Arturo Argueta Villamar.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Saberes indigenas y dialogo intercultural</t>
+    <t xml:space="preserve"> Saberes indígenas y diálogo intercultural</t>
   </si>
 </sst>
 </file>
@@ -1465,7 +1465,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A89" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" ht="14.25">
+    <row r="65" ht="54">
       <c r="A65" s="2" t="s">
         <v>201</v>
       </c>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" ht="14.25">
+    <row r="66" ht="81">
       <c r="A66" s="2" t="s">
         <v>204</v>
       </c>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" ht="14.25">
+    <row r="67" ht="81">
       <c r="A67" s="2" t="s">
         <v>207</v>
       </c>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" ht="14.25">
+    <row r="68" ht="81">
       <c r="A68" s="2" t="s">
         <v>210</v>
       </c>
@@ -2712,7 +2712,7 @@
       </c>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" ht="14.25">
+    <row r="69" ht="121.5">
       <c r="A69" s="2" t="s">
         <v>213</v>
       </c>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" ht="14.25">
+    <row r="70" ht="54">
       <c r="A70" s="2" t="s">
         <v>216</v>
       </c>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" ht="14.25">
+    <row r="71" ht="81">
       <c r="A71" s="2" t="s">
         <v>219</v>
       </c>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" ht="14.25">
+    <row r="72" ht="40.5">
       <c r="A72" s="2" t="s">
         <v>222</v>
       </c>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" ht="14.25">
+    <row r="73" ht="81">
       <c r="A73" s="2" t="s">
         <v>225</v>
       </c>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" ht="14.25">
+    <row r="74" ht="121.5">
       <c r="A74" s="2" t="s">
         <v>228</v>
       </c>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" ht="14.25">
+    <row r="75" ht="175.5">
       <c r="A75" s="2" t="s">
         <v>231</v>
       </c>
@@ -2838,7 +2838,7 @@
       </c>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" ht="14.25">
+    <row r="76" ht="81">
       <c r="A76" s="2" t="s">
         <v>234</v>
       </c>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" ht="14.25">
+    <row r="77" ht="94.5">
       <c r="A77" s="2" t="s">
         <v>237</v>
       </c>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" ht="14.25">
+    <row r="78" ht="94.5">
       <c r="A78" s="2" t="s">
         <v>240</v>
       </c>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" ht="14.25">
+    <row r="79" ht="148.5">
       <c r="A79" s="2" t="s">
         <v>243</v>
       </c>
@@ -2910,7 +2910,7 @@
       </c>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" ht="14.25">
+    <row r="80" ht="94.5">
       <c r="A80" s="2" t="s">
         <v>247</v>
       </c>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" ht="14.25">
+    <row r="81" ht="54">
       <c r="A81" s="2" t="s">
         <v>250</v>
       </c>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" ht="14.25">
+    <row r="82" ht="94.5">
       <c r="A82" s="2" t="s">
         <v>253</v>
       </c>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" ht="14.25">
+    <row r="83" ht="54">
       <c r="A83" s="2" t="s">
         <v>256</v>
       </c>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" ht="14.25">
+    <row r="84" ht="94.5">
       <c r="A84" s="2" t="s">
         <v>258</v>
       </c>
@@ -3000,7 +3000,7 @@
       </c>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" ht="14.25">
+    <row r="85" ht="94.5">
       <c r="A85" s="2" t="s">
         <v>261</v>
       </c>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" ht="14.25">
+    <row r="86" ht="81">
       <c r="A86" s="2" t="s">
         <v>264</v>
       </c>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" ht="14.25">
+    <row r="87" ht="40.5">
       <c r="A87" s="2" t="s">
         <v>267</v>
       </c>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" ht="14.25">
+    <row r="88" ht="135">
       <c r="A88" s="2" t="s">
         <v>271</v>
       </c>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" ht="14.25">
+    <row r="89" ht="54">
       <c r="A89" s="2" t="s">
         <v>274</v>
       </c>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" ht="14.25">
+    <row r="90" ht="108">
       <c r="A90" s="2" t="s">
         <v>278</v>
       </c>
@@ -3108,7 +3108,7 @@
       </c>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" ht="14.25">
+    <row r="91" ht="135">
       <c r="A91" s="2" t="s">
         <v>281</v>
       </c>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" ht="14.25">
+    <row r="92" ht="40.5">
       <c r="A92" s="2" t="s">
         <v>283</v>
       </c>
